--- a/Descargas/R15_2º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
+++ b/Descargas/R15_2º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
@@ -261,7 +261,7 @@
         </is>
       </c>
       <c r="B6" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="B20" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="B21" s="65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
